--- a/src/test/resources/testData/CreditCardTest.xlsx
+++ b/src/test/resources/testData/CreditCardTest.xlsx
@@ -52,7 +52,7 @@
     <t>1234</t>
   </si>
   <si>
-    <t>lauren_july83@yopmail.com</t>
+    <t>lauren1200@yopmail.com</t>
   </si>
   <si>
     <t>Qwerty123@</t>
@@ -149,7 +149,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">

--- a/src/test/resources/testData/CreditCardTest.xlsx
+++ b/src/test/resources/testData/CreditCardTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48109CD-B6E5-5144-9B2D-A4346D1B1B36}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0BCF06-4267-5B44-986E-4FABDC5BB61C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19847@yopmail.com</t>
+    <t>lauren.weiniger.19848@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/CreditCardTest.xlsx
+++ b/src/test/resources/testData/CreditCardTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0BCF06-4267-5B44-986E-4FABDC5BB61C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3889C5-5A4F-154D-A027-DB3555B4326B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19848@yopmail.com</t>
+    <t>lauren.weiniger.19849@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/CreditCardTest.xlsx
+++ b/src/test/resources/testData/CreditCardTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3889C5-5A4F-154D-A027-DB3555B4326B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E5B747-C1A1-634A-BCDB-F17F3A28B04D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19849@yopmail.com</t>
+    <t>lauren.weiniger.19853@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/CreditCardTest.xlsx
+++ b/src/test/resources/testData/CreditCardTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E5B747-C1A1-634A-BCDB-F17F3A28B04D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C80806-BDB8-B645-8CD3-A94683E2264F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19853@yopmail.com</t>
+    <t>lauren.weiniger.19854@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/CreditCardTest.xlsx
+++ b/src/test/resources/testData/CreditCardTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C80806-BDB8-B645-8CD3-A94683E2264F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB2890A-726A-6E47-A124-14A9EEFD7C0B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19854@yopmail.com</t>
+    <t>lauren.weiniger.19855@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/CreditCardTest.xlsx
+++ b/src/test/resources/testData/CreditCardTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB2890A-726A-6E47-A124-14A9EEFD7C0B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74903B07-DEBD-8F44-A851-5D1AF6A890AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19855@yopmail.com</t>
+    <t>lauren.weiniger.19856@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/CreditCardTest.xlsx
+++ b/src/test/resources/testData/CreditCardTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74903B07-DEBD-8F44-A851-5D1AF6A890AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A42378-A3B0-C64A-8351-4617105025B5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19856@yopmail.com</t>
+    <t>lauren.weiniger.19857@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/CreditCardTest.xlsx
+++ b/src/test/resources/testData/CreditCardTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A42378-A3B0-C64A-8351-4617105025B5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD0DE09-6C90-F842-ADF9-2C4BA7EFC98F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19857@yopmail.com</t>
+    <t>lauren.weiniger.19858@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/CreditCardTest.xlsx
+++ b/src/test/resources/testData/CreditCardTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD0DE09-6C90-F842-ADF9-2C4BA7EFC98F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215E1FF0-34D9-E248-A52C-B8A42D1B0D61}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19858@yopmail.com</t>
+    <t>lauren.weiniger.19859@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/CreditCardTest.xlsx
+++ b/src/test/resources/testData/CreditCardTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215E1FF0-34D9-E248-A52C-B8A42D1B0D61}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065907DE-313F-5F47-8CC6-8D8DBE6FC82E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19859@yopmail.com</t>
+    <t>lauren.weiniger.19860@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/CreditCardTest.xlsx
+++ b/src/test/resources/testData/CreditCardTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065907DE-313F-5F47-8CC6-8D8DBE6FC82E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EC4E2A-4AA9-044D-B91B-AB59B85A31FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19860@yopmail.com</t>
+    <t>lauren.weiniger.19861@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/CreditCardTest.xlsx
+++ b/src/test/resources/testData/CreditCardTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EC4E2A-4AA9-044D-B91B-AB59B85A31FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5DD16E-536F-D84D-8F57-92421D7A7C9E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19861@yopmail.com</t>
+    <t>lauren.weiniger.19862@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/CreditCardTest.xlsx
+++ b/src/test/resources/testData/CreditCardTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5DD16E-536F-D84D-8F57-92421D7A7C9E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5D7558-D0F3-894D-96FC-5206B22C9B0A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19862@yopmail.com</t>
+    <t>lauren.weiniger.19863@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/CreditCardTest.xlsx
+++ b/src/test/resources/testData/CreditCardTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5D7558-D0F3-894D-96FC-5206B22C9B0A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE4034D-FECF-B847-9D61-4E6A7B038743}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19863@yopmail.com</t>
+    <t>lauren.weiniger.19864@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/CreditCardTest.xlsx
+++ b/src/test/resources/testData/CreditCardTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE4034D-FECF-B847-9D61-4E6A7B038743}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFBA6A2-293B-3045-9DFE-5A6D122BB5CA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19864@yopmail.com</t>
+    <t>lauren.weiniger.19865@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/CreditCardTest.xlsx
+++ b/src/test/resources/testData/CreditCardTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFBA6A2-293B-3045-9DFE-5A6D122BB5CA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7217A613-AE72-3540-988A-F262786B1623}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19865@yopmail.com</t>
+    <t>lauren.weiniger.19866@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -103,28 +103,33 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>

--- a/src/test/resources/testData/CreditCardTest.xlsx
+++ b/src/test/resources/testData/CreditCardTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7217A613-AE72-3540-988A-F262786B1623}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500F471E-ED1F-334E-ADBE-AC70A5CE58C0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19866@yopmail.com</t>
+    <t>lauren.weiniger.19867@yopmail.com</t>
   </si>
 </sst>
 </file>
